--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784767D0-4ADD-418C-BCD1-C7996E1B2527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9000379A-8B2A-408B-8849-BE0163283DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="27590" windowHeight="15950" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
-    <sheet name="100-x-image-input" sheetId="2" r:id="rId2"/>
+    <sheet name="_ListValues" sheetId="3" r:id="rId2"/>
+    <sheet name="100-x-image-input" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Use Case #</t>
   </si>
@@ -160,12 +161,36 @@
   <si>
     <t>Run example, Java</t>
   </si>
+  <si>
+    <t>python MessagePublisher.py --file=out/orban_putin.jpg</t>
+  </si>
+  <si>
+    <t>Implementation Status</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>IMPLEMENTED</t>
+  </si>
+  <si>
+    <t>Python Code</t>
+  </si>
+  <si>
+    <t>Java Code</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>DOC DEVELOPMENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +224,21 @@
       <color theme="1"/>
       <name val="Aruak"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -226,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,11 +290,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -564,62 +649,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="48.1796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="29.36328125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="3" width="14.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="10.5">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="10.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20">
+    <row r="2" spans="1:7" ht="20">
       <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"IMPLEMENTED"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"OPEN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{2C1A809A-DD03-4C62-B2CB-C0CBD652B8D3}">
+            <xm:f>_ListValues!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B1:C1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECC11612-CB84-4B0F-A4EC-077198F2DD9A}">
+          <x14:formula1>
+            <xm:f>_ListValues!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB24BA23-EDC6-405C-8413-7DDCC41366A7}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5"/>
+  <cols>
+    <col min="1" max="1" width="24.81640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -628,11 +811,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA22A1-2400-4FDB-B83E-AF4FE80BE34F}">
   <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9000379A-8B2A-408B-8849-BE0163283DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84540151-497E-41B8-9F28-0ABC0C39FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="27590" windowHeight="15950" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="_ListValues" sheetId="3" r:id="rId2"/>
     <sheet name="100-x-image-input" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_Main!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Use Case #</t>
   </si>
   <si>
     <t>Use Case Summary</t>
-  </si>
-  <si>
-    <t>I need to format and encode a message with image within to put it into MQ for further processing</t>
   </si>
   <si>
     <t>Use Case Details</t>
@@ -184,6 +184,45 @@
   </si>
   <si>
     <t>DOC DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>UC#100 should work with Host Web Camera in Laptop  All data (timestamps, ids, frameNo-s etc…) should be calculated correctly</t>
+  </si>
+  <si>
+    <t>The system should be configurable to switch between RabbitMQ and Kafka MQ brokers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python code is configured in fc.python\app-config.ini
+Java code is configured in &lt;TBD&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to format and encode a message with single image within to put it into MQ for further processing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC#100 should work with web camera from Camo Studio (using smartphone) for 4K and 2K videos.  All data (timestamps, ids, frameNo-s etc…) should be calculated correctly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC#100 should work with recorded static VideoFile. All data (timestamps, ids, frameNo-s etc…) should be calculated correctly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC#100 should work with Youttube video live stream. All data (timestamps, ids, frameNo-s etc…) should be calculated correctly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC#100 should work with RTSP-stream. All data (timestamps, ids, frameNo-s etc…) should be calculated correctly
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications should provide versioin info (major, minor, build, git-hash)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should provide prometheus data for collecting on dashboard
+</t>
   </si>
 </sst>
 </file>
@@ -296,32 +335,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -649,15 +667,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="3" width="14.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="48.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="45.90625" style="2" customWidth="1"/>
@@ -670,65 +689,170 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40">
       <c r="A5" s="2">
-        <v>400</v>
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="2">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="2">
+        <v>150</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="2">
+        <v>170</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"IMPLEMENTED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -782,27 +906,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -830,139 +954,139 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="10.5">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6">
         <v>79</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6">
         <v>382991</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>1712372019</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
         <v>1712372023</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="10.5">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="230">
       <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84540151-497E-41B8-9F28-0ABC0C39FC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E30A44-2D00-44BC-B59D-1DCD57E10E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="27590" windowHeight="15950" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="37010" windowHeight="21820" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Use Case #</t>
   </si>
@@ -223,6 +223,10 @@
   <si>
     <t xml:space="preserve">The system should provide prometheus data for collecting on dashboard
 </t>
+  </si>
+  <si>
+    <t>gradlew :modules:apps-data-publisher:assemble
+java -jar ./modules/apps-data-publisher/build/libs/apps-data-publisher-0.0.1-SNAPSHOT.jar --file=data/orban_putin.jpg</t>
   </si>
 </sst>
 </file>
@@ -670,7 +674,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10"/>
@@ -679,8 +683,8 @@
     <col min="2" max="3" width="11.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="44.36328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="48.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.453125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -724,7 +728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="40">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -743,8 +747,11 @@
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20">
       <c r="A4" s="2">
         <v>101</v>
       </c>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E30A44-2D00-44BC-B59D-1DCD57E10E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC893998-B8EE-4C88-8253-2004086FF739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="37010" windowHeight="21820" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21648" windowHeight="13176" activeTab="2" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Use Case #</t>
   </si>
@@ -227,6 +227,23 @@
   <si>
     <t>gradlew :modules:apps-data-publisher:assemble
 java -jar ./modules/apps-data-publisher/build/libs/apps-data-publisher-0.0.1-SNAPSHOT.jar --file=data/orban_putin.jpg</t>
+  </si>
+  <si>
+    <t>Processed image must be saved to Minio at identifier, described on 100-x-image-input</t>
+  </si>
+  <si>
+    <t>frameStoragePath</t>
+  </si>
+  <si>
+    <t>local/jpgdata/{hostname}/{source}/frame_{timestamp}_{frameNo}_{localID}.jpg
+Replacement map:
+":": "_#_",
+"\": "/",
+"//": "/",</t>
+  </si>
+  <si>
+    <t>local/jpgdata/HARON/Camera_#_0/frame_1712372019_15_382991.jpg
+local/jpgdata/HARON/C_#_/dev/github/fc/data/video.avi/frame_1712372019_15_382991.jpg</t>
   </si>
 </sst>
 </file>
@@ -350,14 +367,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -671,24 +688,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="14.77734375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="10.5">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -711,7 +728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30.6">
       <c r="A2" s="2">
         <v>50</v>
       </c>
@@ -728,7 +745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40">
+    <row r="3" spans="1:7" ht="40.799999999999997">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -751,7 +768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20">
+    <row r="4" spans="1:7" ht="20.399999999999999">
       <c r="A4" s="2">
         <v>101</v>
       </c>
@@ -765,7 +782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40">
+    <row r="5" spans="1:7" ht="40.799999999999997">
       <c r="A5" s="2">
         <v>102</v>
       </c>
@@ -779,7 +796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="30.6">
       <c r="A6" s="2">
         <v>103</v>
       </c>
@@ -793,7 +810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30.6">
       <c r="A7" s="2">
         <v>104</v>
       </c>
@@ -807,7 +824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30.6">
       <c r="A8" s="2">
         <v>105</v>
       </c>
@@ -821,7 +838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="30.6">
       <c r="A9" s="2">
         <v>150</v>
       </c>
@@ -835,7 +852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="30.6">
       <c r="A10" s="2">
         <v>170</v>
       </c>
@@ -847,6 +864,20 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.399999999999999">
+      <c r="A11" s="2">
+        <v>200</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -856,11 +887,11 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"OPEN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"IMPLEMENTED"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"OPEN"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -905,13 +936,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="24.77734375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="12">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -944,19 +975,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA22A1-2400-4FDB-B83E-AF4FE80BE34F}">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="29.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="90.1796875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -991,7 +1022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="10.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1071,32 +1102,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="10.5">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:4" ht="61.2">
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="230">
-      <c r="B16" s="6" t="s">
+    <row r="17" spans="2:4" ht="234.6">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC893998-B8EE-4C88-8253-2004086FF739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8FA067-BEC5-4E82-948E-52CCF4F94AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21648" windowHeight="13176" activeTab="2" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="37010" windowHeight="21820" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Use Case #</t>
   </si>
@@ -229,9 +229,6 @@
 java -jar ./modules/apps-data-publisher/build/libs/apps-data-publisher-0.0.1-SNAPSHOT.jar --file=data/orban_putin.jpg</t>
   </si>
   <si>
-    <t>Processed image must be saved to Minio at identifier, described on 100-x-image-input</t>
-  </si>
-  <si>
     <t>frameStoragePath</t>
   </si>
   <si>
@@ -244,6 +241,30 @@
   <si>
     <t>local/jpgdata/HARON/Camera_#_0/frame_1712372019_15_382991.jpg
 local/jpgdata/HARON/C_#_/dev/github/fc/data/video.avi/frame_1712372019_15_382991.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed image must be saved to Minio at identifier, described on 100-x-image-input
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input: jpeg image
+output: array
+[
+        {
+            "detection": 0.92,
+            "faceBox": {
+                 "p1": { "x": 507, "y": 42 },
+                 "p2": { "x": 601, "y": 165 }
+              }
+        }
+ ]
+</t>
+  </si>
+  <si>
+    <t>python FacesImageProcessor.py --file=out/orban_putin.jpg</t>
+  </si>
+  <si>
+    <t>Face recognition: input image should be processed to output result in defined format</t>
   </si>
 </sst>
 </file>
@@ -688,24 +709,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.36328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="48.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.453125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="10.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -728,16 +749,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.6">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="2">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
@@ -745,7 +763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.799999999999997">
+    <row r="3" spans="1:7" ht="40">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -768,116 +786,82 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999">
+    <row r="4" spans="1:7" ht="20">
       <c r="A4" s="2">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.799999999999997">
+    <row r="5" spans="1:7" ht="40">
       <c r="A5" s="2">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30.6">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="2">
         <v>103</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30.6">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="2">
         <v>104</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30.6">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="2">
         <v>105</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.6">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="2">
         <v>150</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.6">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="2">
         <v>170</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.399999999999999">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="2">
         <v>200</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="120">
+      <c r="A12" s="2">
+        <v>300</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -936,13 +920,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.77734375" style="10"/>
+    <col min="1" max="1" width="24.81640625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.81640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12">
+    <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -977,17 +961,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA22A1-2400-4FDB-B83E-AF4FE80BE34F}">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="90.21875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="90.1796875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1022,7 +1006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="10.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1102,18 +1086,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="61.2">
+    <row r="14" spans="1:4" ht="60">
       <c r="B14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:4" ht="10.5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="234.6">
+    <row r="17" spans="2:4" ht="230">
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8FA067-BEC5-4E82-948E-52CCF4F94AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E1AB9-1F17-4259-BF8E-A1797B4EB3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="37010" windowHeight="21820" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286E1AB9-1F17-4259-BF8E-A1797B4EB3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB401FDF-88F3-4976-B86E-48C6E24765BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="37010" windowHeight="21820" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="100-x-image-input" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_Main!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_Main!$A$1:$E$14</definedName>
+    <definedName name="Status">_ListValues!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Use Case #</t>
   </si>
@@ -159,31 +160,16 @@
     <t>Run example, Python</t>
   </si>
   <si>
-    <t>Run example, Java</t>
-  </si>
-  <si>
     <t>python MessagePublisher.py --file=out/orban_putin.jpg</t>
   </si>
   <si>
-    <t>Implementation Status</t>
-  </si>
-  <si>
     <t>OPEN</t>
   </si>
   <si>
     <t>IMPLEMENTED</t>
   </si>
   <si>
-    <t>Python Code</t>
-  </si>
-  <si>
-    <t>Java Code</t>
-  </si>
-  <si>
     <t>IN PROGRESS</t>
-  </si>
-  <si>
-    <t>DOC DEVELOPMENT</t>
   </si>
   <si>
     <t>UC#100 should work with Host Web Camera in Laptop  All data (timestamps, ids, frameNo-s etc…) should be calculated correctly</t>
@@ -223,10 +209,6 @@
   <si>
     <t xml:space="preserve">The system should provide prometheus data for collecting on dashboard
 </t>
-  </si>
-  <si>
-    <t>gradlew :modules:apps-data-publisher:assemble
-java -jar ./modules/apps-data-publisher/build/libs/apps-data-publisher-0.0.1-SNAPSHOT.jar --file=data/orban_putin.jpg</t>
   </si>
   <si>
     <t>frameStoragePath</t>
@@ -265,6 +247,28 @@
   </si>
   <si>
     <t>Face recognition: input image should be processed to output result in defined format</t>
+  </si>
+  <si>
+    <t>UC#100 implementation on Python</t>
+  </si>
+  <si>
+    <t>UC#100 implementation on Java</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>100.py</t>
+  </si>
+  <si>
+    <t>100.java</t>
+  </si>
+  <si>
+    <t>gradlew:assemble
+java -jar ./build/libs/jfc-app-publisher-0.0.1-SNAPSHOT.jar  --command=processImage --file=data/dflt_image.jpg</t>
   </si>
 </sst>
 </file>
@@ -321,7 +325,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +338,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -343,11 +371,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,8 +436,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,168 +779,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.36328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="14.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="10.5">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
+    </row>
+    <row r="2" spans="1:5" ht="30.6">
       <c r="A2" s="2">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.6">
       <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999">
+      <c r="A6" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="40.799999999999997">
+      <c r="A7" s="2">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30.6">
+      <c r="A8" s="2">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.6">
+      <c r="A9" s="2">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.6">
+      <c r="A10" s="2">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30.6">
+      <c r="A11" s="2">
+        <v>150</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="30.6">
+      <c r="A12" s="2">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30.6">
+      <c r="A13" s="2">
+        <v>200</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="122.4">
+      <c r="A14" s="2">
+        <v>300</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20">
-      <c r="A4" s="2">
-        <v>101</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40">
-      <c r="A5" s="2">
-        <v>102</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="2">
-        <v>103</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="2">
-        <v>104</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="2">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="2">
-        <v>150</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="2">
-        <v>170</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="2">
-        <v>200</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="120">
-      <c r="A12" s="2">
-        <v>300</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="B1:C1048576">
+  <autoFilter ref="A1:E14" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}"/>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
@@ -878,14 +961,19 @@
       <formula>"IMPLEMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{58F203D4-3CDB-4A8D-961C-977263A4F949}">
+      <formula1>Status</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{2C1A809A-DD03-4C62-B2CB-C0CBD652B8D3}">
-            <xm:f>_ListValues!$A$4</xm:f>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{2C1A809A-DD03-4C62-B2CB-C0CBD652B8D3}">
+            <xm:f>_ListValues!$A$3</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -894,19 +982,9 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B1:C1048576</xm:sqref>
+          <xm:sqref>B1:B1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECC11612-CB84-4B0F-A4EC-077198F2DD9A}">
-          <x14:formula1>
-            <xm:f>_ListValues!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
@@ -914,42 +992,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB24BA23-EDC6-405C-8413-7DDCC41366A7}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.4"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="8.81640625" style="10"/>
+    <col min="1" max="1" width="24.77734375" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>38</v>
+    <row r="1" spans="1:1" ht="12">
+      <c r="A1" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>43</v>
+      <c r="A4" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,16 +1055,16 @@
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="90.1796875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1006,7 +1099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="10.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1086,18 +1179,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60">
+    <row r="14" spans="1:4" ht="61.2">
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="10.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="230">
+    <row r="17" spans="2:4" ht="234.6">
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB401FDF-88F3-4976-B86E-48C6E24765BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265BD5C-D838-4009-9BC5-3D95CC866CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="100-x-image-input" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_Main!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_Main!$A$1:$E$15</definedName>
     <definedName name="Status">_ListValues!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Use Case #</t>
   </si>
@@ -269,6 +269,24 @@
   <si>
     <t>gradlew:assemble
 java -jar ./build/libs/jfc-app-publisher-0.0.1-SNAPSHOT.jar  --command=processImage --file=data/dflt_image.jpg</t>
+  </si>
+  <si>
+    <t>200.java</t>
+  </si>
+  <si>
+    <t>UC#200 Implementation in Java</t>
+  </si>
+  <si>
+    <t>300.java</t>
+  </si>
+  <si>
+    <t>UC#300 implentation in Java</t>
+  </si>
+  <si>
+    <t>300.python</t>
+  </si>
+  <si>
+    <t>UC#300 implentation in Python</t>
   </si>
 </sst>
 </file>
@@ -447,7 +465,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -466,6 +484,39 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -779,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
@@ -934,30 +985,58 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="122.4">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="122.4">
+      <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}"/>
+  <autoFilter ref="A1:E15" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"IMPLEMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -972,7 +1051,25 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{2C1A809A-DD03-4C62-B2CB-C0CBD652B8D3}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{39538FD6-64FC-4670-8ADA-F965C34AAF24}">
+            <xm:f>_ListValues!$A$5</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.14996795556505021"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{2C1A809A-DD03-4C62-B2CB-C0CBD652B8D3}">
             <xm:f>_ListValues!$A$3</xm:f>
             <x14:dxf>
               <fill>

--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E265BD5C-D838-4009-9BC5-3D95CC866CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3054B9-0265-4F05-B1FD-D5CCF4F744DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24210" windowHeight="16220" activeTab="3" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
     <sheet name="_ListValues" sheetId="3" r:id="rId2"/>
     <sheet name="100-x-image-input" sheetId="2" r:id="rId3"/>
+    <sheet name="Messages" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">_Main!$A$1:$E$15</definedName>
@@ -293,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +340,35 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF484848"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF484848"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -430,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,29 +491,35 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -502,13 +538,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -516,7 +545,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -531,6 +560,4875 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549400" cy="252185"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E1E32C-5B45-48AE-81D4-F022D123322A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16148050" y="5441950"/>
+          <a:ext cx="1549400" cy="252185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>q-indexed-data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1980542" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4FB01F-635D-402D-ADD4-80502D2A470C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="3327400"/>
+          <a:ext cx="1980542" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>FacesImageProcessor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6CC39A-0D54-45FF-A4AC-39E5DA052C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14376400" y="5555343"/>
+          <a:ext cx="1771650" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549400" cy="252185"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC47A093-718F-4926-87B5-7D8C403A0F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16192500" y="1682750"/>
+          <a:ext cx="1549400" cy="252185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>q-indexed-images</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>586383</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9351246-40A6-4851-B062-9B388DD54CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14353183" y="1808843"/>
+          <a:ext cx="1839317" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549400" cy="252185"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA01F1C-79FC-4732-AF04-FC657EE30AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6908800" y="3384550"/>
+          <a:ext cx="1549400" cy="252185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>q-input-images</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11793</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E824A0A-0BDF-485E-986B-7AD22AD98E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8458200" y="3476800"/>
+          <a:ext cx="876300" cy="33843"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5202D843-DEF7-49C0-BE56-45A07240B335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6197600" y="3510643"/>
+          <a:ext cx="711200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95233</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="128" name="Group 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF31F84-0548-46E2-962F-46E6B8A2DF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4000500" y="3397250"/>
+          <a:ext cx="2844800" cy="2590783"/>
+          <a:chOff x="4197350" y="3460750"/>
+          <a:chExt cx="2844800" cy="2590783"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="TextBox 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6CB255-8491-4617-A705-7361229F408D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4197350" y="4070350"/>
+            <a:ext cx="2844800" cy="1981183"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>ROUTING </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>KEY:        original-image</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>HEADERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>brokerTimestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>": now</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>frameNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":         0</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>hostname</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":        hostname()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>localID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":         rand(999999)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>source</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":          args.file</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>timestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":       frameTS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>uuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":            imgUUID</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>PAYLOAD</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>  byte[] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>- JPEG</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="TextBox 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C51FF7C-D041-4AF7-8340-831BEFC36DE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4845050" y="3460750"/>
+            <a:ext cx="1549400" cy="252185"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>x-input-images</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="65" name="Straight Connector 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2A8C3A-1769-458C-A65D-1160308ECF29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="58" idx="2"/>
+            <a:endCxn id="2" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5619750" y="3712935"/>
+            <a:ext cx="0" cy="357415"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571171</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>151494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Connector: Elbow 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CDB153-AAF9-4495-B149-18D179850710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="10810257" y="1323358"/>
+          <a:ext cx="1518557" cy="2489529"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571171</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30842</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Connector: Elbow 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72F70BD-EE53-437F-97B9-7FBB165D393D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10611314" y="3339656"/>
+          <a:ext cx="1929143" cy="2502229"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>72934</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="134" name="Group 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCE4ACA-2805-495D-9B24-3772F0AA6242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11690350" y="5429250"/>
+          <a:ext cx="3867150" cy="6245134"/>
+          <a:chOff x="11645900" y="5213350"/>
+          <a:chExt cx="3867150" cy="6245134"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419702E5-4EA6-4C0F-9BC8-36880FF424EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12782550" y="5213350"/>
+            <a:ext cx="1549400" cy="252185"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>x-indexed-data</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="TextBox 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7EFB26-B2CD-4A15-868D-1570BC5A6076}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11645900" y="5873750"/>
+            <a:ext cx="3867150" cy="5584734"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>ROUTING </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>KEY:        original-image</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>HEADERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>brokerTimestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>": 1713164359</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>frameNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>hostname</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>: HARON</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>localID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>: 752467</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>messagey-type</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>: processed-frame-data</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>parentUuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>013e3f7c</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>source</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>out/orban_putin.jpg</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>timestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>1713144162</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>uuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>e02bc707</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>PAYLOAD</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>[</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>  {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    "faceIndex": 0,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    "detection": 0.9998595714569092,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    "faceBox": {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>      "p1": {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>        "x": 139,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>        "y": 17</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>      },</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>      "p2": {</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>        "x": 233,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>        "y": 136</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>      }</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    },</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    "faceVector": [</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" baseline="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>      </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>-0.0351957231760025,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" baseline="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>       </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>0.18412715196609497,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" baseline="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>       </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>...................</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" baseline="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>      </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>-0.01715725101530552</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0" baseline="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    ]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>  },</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>  .............</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="130" name="Straight Connector 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D32411-FE15-4292-ADD8-60B94F6A9A65}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="2"/>
+            <a:endCxn id="118" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13557250" y="5465535"/>
+            <a:ext cx="22225" cy="408215"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21871</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="136" name="Group 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCCF18D-8971-40E2-86B3-3775B26CCE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11658600" y="1682750"/>
+          <a:ext cx="5416550" cy="3495321"/>
+          <a:chOff x="11626850" y="1670050"/>
+          <a:chExt cx="5416550" cy="3495321"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C9A7DE-1B14-4841-9C25-AE9506A0B18E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12782550" y="1670050"/>
+            <a:ext cx="1538883" cy="252185"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>x-indexed-images</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="90" name="Straight Connector 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E45FB99-12B6-468F-BFAA-689DBEA47E66}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="74" idx="0"/>
+            <a:endCxn id="3" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="13551992" y="1922235"/>
+            <a:ext cx="8433" cy="274865"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:round/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="TextBox 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3EE372-0AF2-4FB8-AA82-96A8396E335D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13176250" y="2457450"/>
+            <a:ext cx="3867150" cy="2707921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>ROUTING </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>KEY:        original-image</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>HEADERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>brokerTimestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>now</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>faceNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>           2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>frameNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>          3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>hostname</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>         </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>HARON</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>localID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>          </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>535890</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>messagey-type</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>processed-frame-face</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>parentUuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":       dbcc0b87-850d-</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>s3Path</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":	        local/jpg...51_0_535890.jpg</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>source</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":	        out/orban_putin.jpg</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>timestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>        </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>frameTS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>uuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:             d4c41db4</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>PAYLOAD</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>  byte[] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>- JPEG</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="TextBox 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36E0783-329A-402D-A201-F1C4FC022A45}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11626850" y="2197100"/>
+            <a:ext cx="3867150" cy="2707921"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>ROUTING </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>KEY:        original-image</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>HEADERS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>brokerTimestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>now</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>faceNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>           undefined</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>frameNo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>          3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>hostname</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>         </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>HARON</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>localID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>          </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>535890</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>messagey-type</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>processed-frame-faces</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>parentUuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":       dbcc0b87-850d-</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>s3Path</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":	        local/jpg...51_0_535890.jpg</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>source</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>":	        out/orban_putin.jpg</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>timestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>        </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>frameTS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t> "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>uuid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>:             d4c41db4</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1000" b="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>PAYLOAD</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>  byte[] </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="0">
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>- JPEG</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,21 +5730,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.36328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="44" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="2"/>
+    <col min="5" max="5" width="46.54296875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="10.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -863,7 +5761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.6">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="2">
         <v>50</v>
       </c>
@@ -877,7 +5775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.6">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -906,7 +5804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997">
+    <row r="5" spans="1:5" ht="40">
       <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
@@ -921,7 +5819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999">
+    <row r="6" spans="1:5" ht="20">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -929,7 +5827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40.799999999999997">
+    <row r="7" spans="1:5" ht="40">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -937,7 +5835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.6">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -945,7 +5843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.6">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -953,7 +5851,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.6">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="2">
         <v>105</v>
       </c>
@@ -961,7 +5859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.6">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="2">
         <v>150</v>
       </c>
@@ -969,7 +5867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30.6">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="2">
         <v>170</v>
       </c>
@@ -977,7 +5875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30.6">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -993,7 +5891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="122.4">
+    <row r="15" spans="1:5" ht="120">
       <c r="A15" s="2">
         <v>300</v>
       </c>
@@ -1033,10 +5931,10 @@
   </sheetData>
   <autoFilter ref="A1:E15" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"OPEN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"IMPLEMENTED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1095,13 +5993,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="24.81640625" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12">
+    <row r="1" spans="1:1">
       <c r="A1" s="15" t="s">
         <v>59</v>
       </c>
@@ -1155,13 +6053,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="90.21875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="29.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="90.1796875" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1196,7 +6094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="10.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1276,7 +6174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="61.2">
+    <row r="14" spans="1:4" ht="60">
       <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
@@ -1287,7 +6185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="10.5">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +6199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="234.6">
+    <row r="17" spans="2:4" ht="230">
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1316,4 +6214,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F81061-092A-4C36-A538-14E83A04F772}">
+  <dimension ref="K26:AC38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="26" spans="11:29">
+      <c r="K26" s="16"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="V26" s="22"/>
+    </row>
+    <row r="27" spans="11:29">
+      <c r="K27" s="16"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="19"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="21"/>
+    </row>
+    <row r="28" spans="11:29">
+      <c r="K28" s="16"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="19"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="21"/>
+    </row>
+    <row r="29" spans="11:29">
+      <c r="K29" s="16"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="19"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="21"/>
+    </row>
+    <row r="30" spans="11:29">
+      <c r="K30" s="16"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="19"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="21"/>
+    </row>
+    <row r="31" spans="11:29">
+      <c r="K31" s="16"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="19"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="21"/>
+    </row>
+    <row r="32" spans="11:29">
+      <c r="K32" s="16"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="19"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="17:29">
+      <c r="R33" s="22"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="19"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="21"/>
+    </row>
+    <row r="34" spans="17:29">
+      <c r="Q34" s="18"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="19"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="21"/>
+    </row>
+    <row r="35" spans="17:29">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="19"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="21"/>
+    </row>
+    <row r="36" spans="17:29">
+      <c r="Q36" s="18"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="19"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="21"/>
+    </row>
+    <row r="37" spans="17:29">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="19"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="21"/>
+    </row>
+    <row r="38" spans="17:29">
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K26:K32">
+    <sortCondition ref="K26:K32"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/_Requrements.xlsx
+++ b/doc/_Requrements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\github\vadim-kosarev\fc\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3054B9-0265-4F05-B1FD-D5CCF4F744DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6030C-881E-43DF-83E8-30A5E1C9AABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24210" windowHeight="16220" activeTab="3" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24210" windowHeight="16220" xr2:uid="{9180FCDB-912B-4427-B61B-DDCE8FA014C3}"/>
   </bookViews>
   <sheets>
     <sheet name="_Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Use Case #</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>UC#300 implentation in Python</t>
+  </si>
+  <si>
+    <t>System stores images (processed image, faces, image with marked faces) to S3 Minio</t>
+  </si>
+  <si>
+    <t>400.java</t>
+  </si>
+  <si>
+    <t>#UC400 implementation in Java</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1822,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>72934</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>179376</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1830,9 +1839,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11690350" y="5429250"/>
-          <a:ext cx="3867150" cy="6245134"/>
+          <a:ext cx="3867150" cy="6535726"/>
           <a:chOff x="11645900" y="5213350"/>
-          <a:chExt cx="3867150" cy="6245134"/>
+          <a:chExt cx="3867150" cy="6535726"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1901,7 +1910,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="11645900" y="5873750"/>
-            <a:ext cx="3867150" cy="5584734"/>
+            <a:ext cx="3867150" cy="5875326"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2127,6 +2136,68 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"faceNo": ???</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              </a:rPr>
+              <a:t>"s3Path": ???</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
@@ -2282,7 +2353,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               </a:rPr>
-              <a:t>messagey-type</a:t>
+              <a:t>message-type</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100">
@@ -4051,7 +4122,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               </a:rPr>
-              <a:t>messagey-type</a:t>
+              <a:t>message-type</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1000">
@@ -4996,7 +5067,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               </a:rPr>
-              <a:t>messagey-type</a:t>
+              <a:t>message-type</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1000">
@@ -5426,6 +5497,158 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1412053" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73104C8-38B9-4174-A045-E210D715EEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19005550" y="1644650"/>
+          <a:ext cx="1412053" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>StorageService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Magnetic Disk 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B81F6D6-A02E-41A2-9D67-0D0A4F45CCA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18948400" y="431800"/>
+          <a:ext cx="1377950" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>S3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (MINIO)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5728,10 +5951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEA9E3B-8BD1-4D8E-944C-97151E480D21}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="10"/>
@@ -5913,7 +6136,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>69</v>
@@ -5926,6 +6149,28 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20">
+      <c r="A18" s="2">
+        <v>400</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6220,8 +6465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F81061-092A-4C36-A538-14E83A04F772}">
   <dimension ref="K26:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
